--- a/tumlknexpectimax/excel_data/input_data_NY_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_its.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="708" windowWidth="13680" windowHeight="11196" tabRatio="847"/>
+    <workbookView xWindow="480" yWindow="705" windowWidth="13680" windowHeight="11190" tabRatio="847" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -34,7 +29,7 @@
   <externalReferences>
     <externalReference r:id="rId19"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,7 +39,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -775,9 +770,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -804,6 +799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -923,7 +919,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1039,7 +1035,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1155,7 +1151,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1271,7 +1267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BDE6-4631-9886-2AD8794ADFDF}"/>
             </c:ext>
@@ -1287,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62907904"/>
-        <c:axId val="133455168"/>
+        <c:axId val="61569536"/>
+        <c:axId val="60765248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62907904"/>
+        <c:axId val="61569536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,13 +1309,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133455168"/>
+        <c:crossAx val="60765248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133455168"/>
+        <c:axId val="60765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,19 +1347,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62907904"/>
+        <c:crossAx val="61569536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1378,9 +1377,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1407,6 +1406,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1485,48 +1485,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.9</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.9</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.09</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.4</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.5</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1601,48 +1601,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>24.519389886676155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.21167</c:v>
+                  <c:v>12.211670303203721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.08727</c:v>
+                  <c:v>10.331648594515361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.59423</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.21167</c:v>
+                  <c:v>9.5120485945153614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1758,7 +1758,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1874,7 +1874,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F92B-4BDB-8C8A-80B4841F7958}"/>
             </c:ext>
@@ -1890,11 +1890,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="62909952"/>
-        <c:axId val="133588096"/>
+        <c:axId val="60891648"/>
+        <c:axId val="60767552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62909952"/>
+        <c:axId val="60891648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,13 +1916,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133588096"/>
+        <c:crossAx val="60767552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133588096"/>
+        <c:axId val="60767552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,19 +1954,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62909952"/>
+        <c:crossAx val="60891648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1981,9 +1984,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2010,6 +2013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2091,51 +2095,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>54093.514410000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>28924.563180000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>65564.735539999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>66372.63308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>15811.164779999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>17908.37803</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>76475.574179999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>71590.295100000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>72330.433749999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>56524.301570000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>67241.808149999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>18209.722399999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>71129.362139999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>75132.715379999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91EA-4BE3-8D39-C1A7A45459C7}"/>
             </c:ext>
@@ -2150,11 +2154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163129856"/>
-        <c:axId val="133590400"/>
+        <c:axId val="59715584"/>
+        <c:axId val="61056704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163129856"/>
+        <c:axId val="59715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133590400"/>
+        <c:crossAx val="61056704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133590400"/>
+        <c:axId val="61056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,13 +2199,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163129856"/>
+        <c:crossAx val="59715584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,9 +2224,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2398,7 +2403,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2563,7 +2568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2728,7 +2733,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9BE7-40B5-9E01-190C466D1BD6}"/>
             </c:ext>
@@ -2743,11 +2748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="163478016"/>
-        <c:axId val="133592128"/>
+        <c:axId val="40882176"/>
+        <c:axId val="61058432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163478016"/>
+        <c:axId val="40882176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133592128"/>
+        <c:crossAx val="61058432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133592128"/>
+        <c:axId val="61058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163478016"/>
+        <c:crossAx val="40882176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,7 +2822,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2858,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2901,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2942,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,6 +2970,7 @@
       <sheetName val="CAPEX"/>
       <sheetName val="OPEX"/>
       <sheetName val="Revenue"/>
+      <sheetName val="MIG_MATRIX"/>
       <sheetName val="ADSL"/>
       <sheetName val="FTTC_GPON_25"/>
       <sheetName val="FTTB_XGPON_50"/>
@@ -2979,7 +2985,6 @@
       <sheetName val="FTTH_Hybridpon_100"/>
       <sheetName val="FTTC_Hybridpon_100"/>
       <sheetName val="FTTB_Hybridpon_100"/>
-      <sheetName val="MIG_MATRIX"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3002,10 +3007,10 @@
             <v>FTTC_GPON_25</v>
           </cell>
           <cell r="S3">
-            <v>146337.9</v>
+            <v>96261.143172944852</v>
           </cell>
           <cell r="T3">
-            <v>18.840229999999998</v>
+            <v>5.1327825331856927</v>
           </cell>
           <cell r="U3">
             <v>3056.8888888888887</v>
@@ -3014,7 +3019,7 @@
             <v>158553.60000000001</v>
           </cell>
           <cell r="X3">
-            <v>307967.22911888885</v>
+            <v>257876.76484436693</v>
           </cell>
         </row>
         <row r="4">
@@ -3022,10 +3027,10 @@
             <v>FTTB_XGPON_50</v>
           </cell>
           <cell r="S4">
-            <v>146337.9</v>
+            <v>146337.87420813384</v>
           </cell>
           <cell r="T4">
-            <v>12.814590000000001</v>
+            <v>12.814589886676153</v>
           </cell>
           <cell r="U4">
             <v>6405.333333333333</v>
@@ -3034,7 +3039,7 @@
             <v>63750.8</v>
           </cell>
           <cell r="X4">
-            <v>216506.84792333335</v>
+            <v>216506.82213135384</v>
           </cell>
         </row>
         <row r="5">
@@ -3042,10 +3047,10 @@
             <v>FTTB_UDWDM_50</v>
           </cell>
           <cell r="S5">
-            <v>78872.09</v>
+            <v>78872.086550701642</v>
           </cell>
           <cell r="T5">
-            <v>14.612120000000001</v>
+            <v>14.612123172178348</v>
           </cell>
           <cell r="U5">
             <v>5299.166666666667</v>
@@ -3054,7 +3059,7 @@
             <v>60860</v>
           </cell>
           <cell r="X5">
-            <v>145045.86878666666</v>
+            <v>145045.86534054048</v>
           </cell>
         </row>
         <row r="6">
@@ -3062,10 +3067,10 @@
             <v>FTTH_UDWDM_100</v>
           </cell>
           <cell r="S6">
-            <v>78872.09</v>
+            <v>78872.086550701642</v>
           </cell>
           <cell r="T6">
-            <v>14.612120000000001</v>
+            <v>14.612123172178348</v>
           </cell>
           <cell r="U6">
             <v>5866.833333333333</v>
@@ -3074,7 +3079,7 @@
             <v>133338.59999999998</v>
           </cell>
           <cell r="X6">
-            <v>218092.13545333332</v>
+            <v>218092.13200720714</v>
           </cell>
         </row>
         <row r="7">
@@ -3082,10 +3087,10 @@
             <v>FTTH_XGPON_100</v>
           </cell>
           <cell r="S7">
-            <v>146337.9</v>
+            <v>146337.87420813384</v>
           </cell>
           <cell r="T7">
-            <v>12.814590000000001</v>
+            <v>24.519389886676155</v>
           </cell>
           <cell r="U7">
             <v>12618.666666666666</v>
@@ -3094,7 +3099,7 @@
             <v>129280.20000000001</v>
           </cell>
           <cell r="X7">
-            <v>288249.58125666669</v>
+            <v>288261.26026468718</v>
           </cell>
         </row>
         <row r="8">
@@ -3102,10 +3107,10 @@
             <v>FTTC_GPON_100</v>
           </cell>
           <cell r="S8">
-            <v>146337.9</v>
+            <v>96261.143172944852</v>
           </cell>
           <cell r="T8">
-            <v>18.840229999999998</v>
+            <v>5.1327825331856927</v>
           </cell>
           <cell r="U8">
             <v>6426.666666666667</v>
@@ -3114,7 +3119,7 @@
             <v>195086.4</v>
           </cell>
           <cell r="X8">
-            <v>347869.80689666665</v>
+            <v>297779.34262214473</v>
           </cell>
         </row>
         <row r="9">
@@ -3122,10 +3127,10 @@
             <v>FTTB_XGPON_100</v>
           </cell>
           <cell r="S9">
-            <v>146337.9</v>
+            <v>146337.87420813384</v>
           </cell>
           <cell r="T9">
-            <v>12.814590000000001</v>
+            <v>12.814589886676153</v>
           </cell>
           <cell r="U9">
             <v>12818.666666666666</v>
@@ -3134,7 +3139,7 @@
             <v>61989.9</v>
           </cell>
           <cell r="X9">
-            <v>221159.28125666664</v>
+            <v>221159.25546468716</v>
           </cell>
         </row>
         <row r="10">
@@ -3142,10 +3147,10 @@
             <v>FTTB_UDWDM_100</v>
           </cell>
           <cell r="S10">
-            <v>78872.09</v>
+            <v>78872.086550701642</v>
           </cell>
           <cell r="T10">
-            <v>14.612120000000001</v>
+            <v>14.612123172178348</v>
           </cell>
           <cell r="U10">
             <v>5866.833333333333</v>
@@ -3154,7 +3159,7 @@
             <v>63060</v>
           </cell>
           <cell r="X10">
-            <v>147813.53545333334</v>
+            <v>147813.53200720716</v>
           </cell>
         </row>
         <row r="11">
@@ -3162,10 +3167,10 @@
             <v>FTTC_Hybridpon_25</v>
           </cell>
           <cell r="S11">
-            <v>114876.4</v>
+            <v>114876.35990534152</v>
           </cell>
           <cell r="T11">
-            <v>12.59423</v>
+            <v>12.594228370284263</v>
           </cell>
           <cell r="U11">
             <v>4000</v>
@@ -3174,7 +3179,7 @@
             <v>96145</v>
           </cell>
           <cell r="X11">
-            <v>215033.99423000001</v>
+            <v>215033.95413371181</v>
           </cell>
         </row>
         <row r="12">
@@ -3182,10 +3187,10 @@
             <v>FTTB_Hybridpon_50</v>
           </cell>
           <cell r="S12">
-            <v>115530.5</v>
+            <v>115530.46906962365</v>
           </cell>
           <cell r="T12">
-            <v>12.21167</v>
+            <v>12.211670303203721</v>
           </cell>
           <cell r="U12">
             <v>7280</v>
@@ -3194,7 +3199,7 @@
             <v>55966.5</v>
           </cell>
           <cell r="X12">
-            <v>178789.21166999999</v>
+            <v>178789.18073992687</v>
           </cell>
         </row>
         <row r="13">
@@ -3202,10 +3207,10 @@
             <v>FTTH_Hybridpon_100</v>
           </cell>
           <cell r="S13">
-            <v>115530.5</v>
+            <v>115530.46906962365</v>
           </cell>
           <cell r="T13">
-            <v>25.08727</v>
+            <v>10.331648594515361</v>
           </cell>
           <cell r="U13">
             <v>14160</v>
@@ -3214,7 +3219,7 @@
             <v>168466.5</v>
           </cell>
           <cell r="X13">
-            <v>298182.08727000002</v>
+            <v>298167.30071821815</v>
           </cell>
         </row>
         <row r="14">
@@ -3222,10 +3227,10 @@
             <v>FTTC_Hybridpon_100</v>
           </cell>
           <cell r="S14">
-            <v>114876.4</v>
+            <v>114876.35990534152</v>
           </cell>
           <cell r="T14">
-            <v>12.59423</v>
+            <v>12.594228370284263</v>
           </cell>
           <cell r="U14">
             <v>14800</v>
@@ -3234,7 +3239,7 @@
             <v>105356</v>
           </cell>
           <cell r="X14">
-            <v>235044.99423000001</v>
+            <v>235044.95413371181</v>
           </cell>
         </row>
         <row r="15">
@@ -3242,10 +3247,10 @@
             <v>FTTB_Hybridpon_100</v>
           </cell>
           <cell r="S15">
-            <v>115530.5</v>
+            <v>115530.46906962365</v>
           </cell>
           <cell r="T15">
-            <v>12.21167</v>
+            <v>9.5120485945153614</v>
           </cell>
           <cell r="U15">
             <v>14160</v>
@@ -3254,7 +3259,7 @@
             <v>66966.5</v>
           </cell>
           <cell r="X15">
-            <v>196669.21166999999</v>
+            <v>196666.48111821816</v>
           </cell>
         </row>
       </sheetData>
@@ -3323,7 +3328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3356,26 +3361,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3408,23 +3396,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3603,31 +3574,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="10" width="19.109375" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="18" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="18" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="9" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -3743,7 +3714,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3822,7 +3793,7 @@
         <v>291788.63717996189</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3900,7 +3871,7 @@
         <v>277824.94829107303</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3974,7 +3945,7 @@
         <v>227248.16613108691</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -4052,7 +4023,7 @@
         <v>409874.16613108688</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -4130,7 +4101,7 @@
         <v>461966.14829107304</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -4206,7 +4177,7 @@
         <v>326492.94829107303</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -4282,7 +4253,7 @@
         <v>247053.24829107302</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -4357,7 +4328,7 @@
         <v>338458.16613108688</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -4434,7 +4405,7 @@
         <v>246300.33066481428</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4510,7 +4481,7 @@
         <v>249323.97727255611</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4587,7 +4558,7 @@
         <v>525612.57727255614</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4663,7 +4634,7 @@
         <v>443647.77727255609</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4740,13 +4711,13 @@
         <v>384812.57727255614</v>
       </c>
     </row>
-    <row r="27" spans="17:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Q27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R42" s="5" t="s">
         <v>52</v>
       </c>
@@ -4760,12 +4731,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>55</v>
       </c>
@@ -4785,7 +4756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S45" t="s">
         <v>57</v>
       </c>
@@ -4796,7 +4767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="18:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>60</v>
       </c>
@@ -4828,7 +4799,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6273,7 +6244,7 @@
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7718,9 +7689,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -9166,7 +9137,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10611,7 +10582,7 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12056,7 +12027,7 @@
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -13501,7 +13472,7 @@
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14946,7 +14917,7 @@
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -16391,26 +16362,26 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -16457,7 +16428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -16466,58 +16437,58 @@
       </c>
       <c r="C2">
         <f>[1]CAPEX!$X3</f>
-        <v>307967.22911888885</v>
+        <v>257876.76484436693</v>
       </c>
       <c r="D2">
         <f>[1]CAPEX!$X4</f>
-        <v>216506.84792333335</v>
+        <v>216506.82213135384</v>
       </c>
       <c r="E2">
         <f>[1]CAPEX!$X5</f>
-        <v>145045.86878666666</v>
+        <v>145045.86534054048</v>
       </c>
       <c r="F2">
         <f>[1]CAPEX!$X6</f>
-        <v>218092.13545333332</v>
+        <v>218092.13200720714</v>
       </c>
       <c r="G2">
         <f>[1]CAPEX!$X7</f>
-        <v>288249.58125666669</v>
+        <v>288261.26026468718</v>
       </c>
       <c r="H2">
         <f>[1]CAPEX!$X8</f>
-        <v>347869.80689666665</v>
+        <v>297779.34262214473</v>
       </c>
       <c r="I2">
         <f>[1]CAPEX!$X9</f>
-        <v>221159.28125666664</v>
+        <v>221159.25546468716</v>
       </c>
       <c r="J2">
         <f>[1]CAPEX!$X10</f>
-        <v>147813.53545333334</v>
+        <v>147813.53200720716</v>
       </c>
       <c r="K2">
         <f>[1]CAPEX!$X11</f>
-        <v>215033.99423000001</v>
+        <v>215033.95413371181</v>
       </c>
       <c r="L2">
         <f>[1]CAPEX!$X12</f>
-        <v>178789.21166999999</v>
+        <v>178789.18073992687</v>
       </c>
       <c r="M2">
         <f>[1]CAPEX!$X13</f>
-        <v>298182.08727000002</v>
+        <v>298167.30071821815</v>
       </c>
       <c r="N2">
         <f>[1]CAPEX!$X14</f>
-        <v>235044.99423000001</v>
+        <v>235044.95413371181</v>
       </c>
       <c r="O2">
         <f>[1]CAPEX!$X15</f>
-        <v>196669.21166999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>196666.48111821816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -16539,7 +16510,7 @@
       </c>
       <c r="G3">
         <f>IF(G2-C2&gt;0,G2-C2,0)</f>
-        <v>0</v>
+        <v>30384.495420320251</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
@@ -16547,7 +16518,7 @@
       </c>
       <c r="I3">
         <f>I2-D2+D3</f>
-        <v>4652.4333333332906</v>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -16568,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -16589,14 +16560,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>71742.733333333337</v>
+        <v>71754.438133333344</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4652.4333333332906</v>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16617,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -16666,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16713,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -16760,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -16809,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -16830,7 +16801,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67090.300000000047</v>
+        <v>67102.004800000024</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16857,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -16905,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -16945,7 +16916,7 @@
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>83148.093040000007</v>
+        <v>83133.346584506333</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
@@ -16953,10 +16924,10 @@
       </c>
       <c r="O11">
         <f>O2-L2+L11</f>
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17877.300378291286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -16995,17 +16966,17 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>119392.87560000003</v>
+        <v>119378.11997829127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>17880</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>17877.300378291286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -17052,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17091,7 +17062,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>63137.093040000007</v>
+        <v>63122.346584506333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -17101,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -17140,7 +17111,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>101512.87560000003</v>
+        <v>101500.81959999999</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -17149,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -17174,15 +17145,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -17198,7 +17169,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>20000</v>
+        <v>54093.514410000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -17206,7 +17177,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
+        <v>28924.563180000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -17214,7 +17185,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
+        <v>65564.735539999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -17222,7 +17193,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
+        <v>66372.63308</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -17230,7 +17201,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>10540.776519765759</v>
+        <v>15811.164779999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -17238,7 +17209,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
+        <v>17908.37803</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -17246,7 +17217,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
+        <v>76475.574179999996</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -17254,7 +17225,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>47726.863400003029</v>
+        <v>71590.295100000003</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -17262,7 +17233,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>48220.289169209609</v>
+        <v>72330.433749999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -17270,7 +17241,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>37682.867713520049</v>
+        <v>56524.301570000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -17278,7 +17249,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
+        <v>67241.808149999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -17286,7 +17257,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
+        <v>18209.722399999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -17294,7 +17265,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
+        <v>71129.362139999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -17302,7 +17273,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
     </row>
   </sheetData>
@@ -17319,22 +17290,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -17414,7 +17385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -17462,31 +17433,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-73992.715379999994</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-73992.715379999994</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-48948.476920599649</v>
+        <v>-73992.715379999994</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17494,30 +17465,30 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-48804.476920599649</v>
+        <v>-73848.715379999994</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-73992.715379999994</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-48948.476920599649</v>
+        <v>-73992.715379999994</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-48948.476920599649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-73992.715379999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17564,31 +17535,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-48372.476920599649</v>
+        <v>-73416.715379999994</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-48288.476920599649</v>
+        <v>-73332.715379999994</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-47652.476920599649</v>
+        <v>-72696.715379999994</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-48552.476920599649</v>
+        <v>-73596.715379999994</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-48480.476920599649</v>
+        <v>-73524.715379999994</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-47928.476920599649</v>
+        <v>-72972.715379999994</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17596,30 +17567,30 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-43974.979018726954</v>
+        <v>-66742.468527272722</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-43898.615382363314</v>
+        <v>-66666.10489090909</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-43320.433564181498</v>
+        <v>-66087.923072727266</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-44138.615382363314</v>
+        <v>-66906.10489090909</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-44073.16083690877</v>
+        <v>-66840.650345454531</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-43571.342655090586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-66338.832163636354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17675,31 +17646,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-47736.476920599649</v>
+        <v>-72780.715379999994</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-47616.476920599649</v>
+        <v>-72660.715379999994</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-45444.476920599649</v>
+        <v>-70488.715379999994</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-48000.476920599649</v>
+        <v>-73044.715379999994</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-47892.476920599649</v>
+        <v>-72936.715379999994</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-45936.476920599649</v>
+        <v>-70980.715379999994</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17707,30 +17678,30 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-39451.633818677394</v>
+        <v>-60149.351553718996</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-39352.460264958383</v>
+        <v>-60050.177999999985</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-37557.418942644334</v>
+        <v>-58255.136677685936</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-39669.81563685921</v>
+        <v>-60367.533371900812</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-39580.5594385121</v>
+        <v>-60278.27717355371</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-37964.03051289227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-58661.748247933872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17787,31 +17758,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-46908.476920599649</v>
+        <v>-71952.715379999994</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-46572.476920599649</v>
+        <v>-71616.715379999994</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-41052.476920599649</v>
+        <v>-66096.715379999994</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-47244.476920599649</v>
+        <v>-72288.715379999994</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-46932.476920599649</v>
+        <v>-71976.715379999994</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-41976.476920599649</v>
+        <v>-67020.715379999994</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17819,30 +17790,30 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-35243.03299819657</v>
+        <v>-54059.140030052571</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-34990.591225093638</v>
+        <v>-53806.698256949639</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-30843.333524116933</v>
+        <v>-49659.440555972935</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-35495.474771299501</v>
+        <v>-54311.581803155503</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-35261.064553418211</v>
+        <v>-54077.171585274213</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-31537.54840014999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-50353.655432005988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17899,31 +17870,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-45744.476920599649</v>
+        <v>-70788.715379999994</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-45132.476920599649</v>
+        <v>-70176.715379999994</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-32556.476920599649</v>
+        <v>-57600.715379999994</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-46212.476920599649</v>
+        <v>-71256.715379999994</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-45648.476920599649</v>
+        <v>-70692.715379999994</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-34320.476920599649</v>
+        <v>-59364.715379999994</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17931,30 +17902,30 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-31244.093245406486</v>
+        <v>-48349.645092548308</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-30826.089010723063</v>
+        <v>-47931.640857864884</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-22236.511796051938</v>
+        <v>-39342.06364319376</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-31563.743542517339</v>
+        <v>-48669.295389659157</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-31178.523953691441</v>
+        <v>-48284.075800833263</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-23441.347531315922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-40546.89937845774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -18011,31 +17982,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-44160.476920599649</v>
+        <v>-69204.715379999994</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-43092.476920599649</v>
+        <v>-68136.715379999994</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-16260.476920599649</v>
+        <v>-41304.715379999994</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-44760.476920599649</v>
+        <v>-69804.715379999994</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-43812.476920599649</v>
+        <v>-68856.715379999994</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-19668.476920599649</v>
+        <v>-44712.715379999994</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -18043,30 +18014,30 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-27420.181756462011</v>
+        <v>-42970.683435681844</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-26757.037783434833</v>
+        <v>-42307.539462654669</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-10096.476843111588</v>
+        <v>-25646.978522331421</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-27792.734550297504</v>
+        <v>-43343.236229517337</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-27204.101136037425</v>
+        <v>-42754.602815257262</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-12212.576712097187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-27763.07839131702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -18123,31 +18094,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-41976.476920599649</v>
+        <v>-67020.715379999994</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-40176.476920599649</v>
+        <v>-65220.715379999994</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>13643.523079400351</v>
+        <v>-11400.715379999994</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-42828.476920599649</v>
+        <v>-67872.715379999994</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-41172.476920599649</v>
+        <v>-66216.715379999994</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>7247.523079400351</v>
+        <v>-17796.715379999994</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -18155,30 +18126,30 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-23694.626897182559</v>
+        <v>-37831.446605564226</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-22678.573823085761</v>
+        <v>-36815.393531467431</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>7701.4130924085284</v>
+        <v>-6435.4066159731392</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-24175.558685588378</v>
+        <v>-38312.378393970044</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-23240.789857419324</v>
+        <v>-37377.609565800994</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>4091.0378357845698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-10045.781872597097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -18234,31 +18205,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-39000.476920599649</v>
+        <v>-64044.715379999994</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-36072.476920599649</v>
+        <v>-61116.715379999994</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>64451.523079400351</v>
+        <v>39407.284620000006</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-40128.476920599649</v>
+        <v>-65172.715379999994</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-37512.476920599649</v>
+        <v>-62556.715379999994</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>52979.523079400351</v>
+        <v>27935.284620000006</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -18266,30 +18237,30 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-20013.411346675013</v>
+        <v>-32865.065627021984</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-18510.884376495505</v>
+        <v>-31362.538656842473</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>33073.822300528031</v>
+        <v>20222.168020181063</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-20592.253704039249</v>
+        <v>-33443.90798438622</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-19249.83206674772</v>
+        <v>-32101.486347094691</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>27186.872368185366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>14335.218087838399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -18345,31 +18316,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-34944.476920599649</v>
+        <v>-59988.715379999994</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-30312.476920599649</v>
+        <v>-55356.715379999994</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>138143.52307940036</v>
+        <v>113099.28462000001</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-36480.476920599649</v>
+        <v>-61524.715379999994</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-32328.476920599649</v>
+        <v>-57372.715379999994</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>119291.52307940036</v>
+        <v>94247.284620000006</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -18377,30 +18348,30 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-16301.856381028425</v>
+        <v>-27985.178454071123</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-14140.994195896941</v>
+        <v>-25824.316268939641</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>64444.973044713872</v>
+        <v>52761.650971671166</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-17018.411717030576</v>
+        <v>-28701.733790073275</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-15081.473074399764</v>
+        <v>-26764.795147442463</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>55650.375912999982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <v>43967.053839957276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -18456,31 +18427,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-29472.476920599649</v>
+        <v>-54516.715379999994</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-22344.476920599649</v>
+        <v>-47388.715379999994</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>216887.52307940036</v>
+        <v>191843.28461999999</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-31560.476920599649</v>
+        <v>-56604.715379999994</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-25152.476920599649</v>
+        <v>-50196.715379999994</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>190175.52307940036</v>
+        <v>165131.28461999999</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18488,30 +18459,30 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-12499.207269564333</v>
+        <v>-23120.409154148601</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-9476.2394458052604</v>
+        <v>-20097.441330389531</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>91981.481992680987</v>
+        <v>81360.280108096718</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-13384.72309672608</v>
+        <v>-24005.924981310352</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-10667.105558195199</v>
+        <v>-21288.307442779467</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>80652.986410715181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <v>70031.784526130898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -18568,31 +18539,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-22128.476920599649</v>
+        <v>-47172.715379999994</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-11508.476920599649</v>
+        <v>-36552.715379999994</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>264167.52307940036</v>
+        <v>239123.28461999999</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-24960.476920599649</v>
+        <v>-50004.715379999994</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-15384.476920599649</v>
+        <v>-40428.715379999994</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>232727.52307940036</v>
+        <v>207683.28461999999</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18600,30 +18571,30 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-8531.4857820334582</v>
+        <v>-18187.123858928248</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-4437.0160482918336</v>
+        <v>-14092.654125186624</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>101848.01580848369</v>
+        <v>92192.377731588887</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-9623.3443776978911</v>
+        <v>-19278.982454592682</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-5931.3818381206975</v>
+        <v>-15587.019915015488</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>89726.534788819219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>80070.896711924419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18679,31 +18650,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-12480.476920599649</v>
+        <v>-37524.715379999994</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>3083.523079400351</v>
+        <v>-21960.715379999994</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>274307.52307940036</v>
+        <v>249263.28461999999</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-16272.476920599649</v>
+        <v>-41316.715379999994</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-2268.476920599649</v>
+        <v>-27312.715379999994</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>241859.52307940036</v>
+        <v>216815.28461999999</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18711,30 +18682,30 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-4374.3310232884887</v>
+        <v>-13152.183820465571</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>1080.7560282398995</v>
+        <v>-7697.0967689371819</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>96143.113421181028</v>
+        <v>87365.260624003931</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-5703.4038901219283</v>
+        <v>-14481.256687299008</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-795.08732178451146</v>
+        <v>-9572.9401189615928</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>84770.287370808801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <v>75992.434573631719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18790,31 +18761,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>143.52307940035098</v>
+        <v>-24900.715379999994</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>22127.523079400351</v>
+        <v>-2916.7153799999942</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>274763.52307940036</v>
+        <v>249719.28461999999</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-4896.476920599649</v>
+        <v>-29940.715379999994</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>14891.523079400351</v>
+        <v>-10152.715379999994</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>242243.52307940036</v>
+        <v>217199.28461999999</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18822,30 +18793,30 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>45.730876149642263</v>
+        <v>-7934.13530310225</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>7050.5107726941205</v>
+        <v>-929.35540655777152</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>87548.126035767767</v>
+        <v>79568.25985651587</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-1560.1684451105548</v>
+        <v>-9540.0346243624481</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>4744.8981757419806</v>
+        <v>-3234.9680035099118</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>77186.251843826962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>69206.385664575064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18901,31 +18872,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>16223.523079400351</v>
+        <v>-8820.7153799999942</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>46247.523079400351</v>
+        <v>21203.284620000006</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>274847.52307940036</v>
+        <v>249803.28461999999</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>9587.523079400351</v>
+        <v>-15456.715379999994</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>36587.523079400351</v>
+        <v>11543.284620000006</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>242327.52307940036</v>
+        <v>217283.28461999999</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18933,30 +18904,30 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>4699.3767499383421</v>
+        <v>-2555.0470493815606</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>13396.260087152656</v>
+        <v>6141.8362878327534</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>79613.537294959489</v>
+        <v>72359.113495639584</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>2777.1639260056818</v>
+        <v>-4477.2598733142213</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>10598.102178896252</v>
+        <v>3343.6783795763495</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>70193.6516659224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+        <v>62939.227866602494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -19012,31 +18983,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>36215.523079400351</v>
+        <v>11171.284620000006</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>75275.523079400358</v>
+        <v>50231.284620000006</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>274883.52307940036</v>
+        <v>249839.28461999999</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>27551.523079400351</v>
+        <v>2507.2846200000058</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>62699.523079400351</v>
+        <v>37655.284620000006</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>242351.52307940036</v>
+        <v>217307.28461999999</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -19044,30 +19015,30 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>9536.6791178492731</v>
+        <v>2941.7483911948189</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>19822.397911044751</v>
+        <v>13227.467184390292</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>72385.422920572717</v>
+        <v>65790.492193918253</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>7255.1771305413986</v>
+        <v>660.24640388694399</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>16510.74405689149</v>
+        <v>9915.8133302370352</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>63818.730555487324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>57223.799828832867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -19123,31 +19094,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>60251.523079400351</v>
+        <v>35207.284620000006</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>108299.52307940036</v>
+        <v>83255.284620000006</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>274907.52307940036</v>
+        <v>249863.28461999999</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>49187.523079400351</v>
+        <v>24143.284620000006</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>92459.523079400358</v>
+        <v>67415.284620000006</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>242375.52307940036</v>
+        <v>217331.28461999999</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -19155,30 +19126,30 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>14423.735587591096</v>
+        <v>8428.3440179052286</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>25926.044775680661</v>
+        <v>19930.653205994789</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>65810.675336978238</v>
+        <v>59815.283767292363</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>11775.101953370673</v>
+        <v>5779.7103836848046</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>22134.074713673112</v>
+        <v>16138.683143987242</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>58022.773186900609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>52027.381617214734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -19234,31 +19205,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>87899.523079400358</v>
+        <v>62855.284620000006</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>143159.52307940036</v>
+        <v>118115.28462000001</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>274919.52307940036</v>
+        <v>249875.28461999999</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>74075.523079400358</v>
+        <v>49031.284620000006</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>123827.52307940036</v>
+        <v>98783.284620000006</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>242387.52307940036</v>
+        <v>217343.28461999999</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -19266,30 +19237,30 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>19129.497244136117</v>
+        <v>13679.141271694416</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>31155.683287899723</v>
+        <v>25705.327315458024</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>59830.498219609697</v>
+        <v>54380.142247167991</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>16120.992070973101</v>
+        <v>10670.636098531402</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>26948.476834804573</v>
+        <v>21498.120862362874</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>52750.587174084583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>47300.231201642877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -19336,31 +19307,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>117983.52307940036</v>
+        <v>92939.284620000006</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>176759.52307940036</v>
+        <v>151715.28461999999</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>249887.28461999999</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>101171.52307940036</v>
+        <v>76127.284620000006</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>154031.52307940036</v>
+        <v>128987.28462000001</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>217355.28461999999</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -19368,30 +19339,30 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>23342.411059315404</v>
+        <v>18387.541993459312</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>34970.92931858974</v>
+        <v>30016.060252733645</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>54393.736153853795</v>
+        <v>49438.8670879977</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>20016.246485766333</v>
+        <v>15061.377419910243</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>30474.31568382747</v>
+        <v>25519.446617971378</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>47957.453385194603</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>43002.584319338508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -19438,31 +19409,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>148739.52307940036</v>
+        <v>123695.28462000001</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>206135.52307940036</v>
+        <v>181091.28461999999</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>249887.28461999999</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>128843.52307940036</v>
+        <v>103799.28462000001</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>180479.52307940036</v>
+        <v>155435.28461999999</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>217355.28461999999</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -19470,30 +19441,30 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>26752.110632734504</v>
+        <v>22247.684209228966</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>37075.285738363731</v>
+        <v>32570.859314858189</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>49448.851048957993</v>
+        <v>44944.424625452448</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>23173.640148700786</v>
+        <v>18669.213725195252</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>32460.828624452944</v>
+        <v>27956.402200947403</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>43597.68489563145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>39093.258472125912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -19540,31 +19511,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>177995.52307940036</v>
+        <v>152951.28461999999</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>229391.52307940036</v>
+        <v>204347.28461999999</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>249887.28461999999</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>155171.52307940036</v>
+        <v>130127.28462000001</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>201443.52307940036</v>
+        <v>176399.28461999999</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>217355.28461999999</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19572,30 +19543,30 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>29103.690354834955</v>
+        <v>25008.757242557193</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>37507.347051356715</v>
+        <v>33412.413939078957</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>44953.500953598159</v>
+        <v>40858.5678413204</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>25371.7839722096</v>
+        <v>21276.850859931837</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>32937.625723736084</v>
+        <v>28842.692611458318</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>39634.258996028584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+        <v>35539.325883750818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19642,31 +19613,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>50088.476920599649</v>
+        <v>75132.715379999994</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>203783.52307940036</v>
+        <v>178739.28461999999</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>246191.52307940036</v>
+        <v>221147.28461999999</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>274931.52307940036</v>
+        <v>249887.28461999999</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>178391.52307940036</v>
+        <v>153347.28461999999</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>216539.52307940036</v>
+        <v>191495.28461999999</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>242399.52307940036</v>
+        <v>217355.28461999999</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19674,30 +19645,30 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>30291.122202063849</v>
+        <v>26568.455736356791</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>36594.801179311726</v>
+        <v>32872.134713604668</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>40866.819048725607</v>
+        <v>37144.152583018549</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>26516.763199274796</v>
+        <v>22794.096733567738</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>32187.220321139823</v>
+        <v>28464.553855432765</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>36031.144541844173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>32308.478076137115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J25" s="3">
         <v>29262</v>
       </c>
@@ -19708,7 +19679,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -19716,7 +19687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -19739,7 +19710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19774,7 +19745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19809,7 +19780,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19838,7 +19809,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19867,7 +19838,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19896,7 +19867,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19925,7 +19896,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19968,7 +19939,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19997,7 +19968,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -20026,7 +19997,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -20055,7 +20026,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -20084,7 +20055,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -20113,7 +20084,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -20142,7 +20113,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -20171,7 +20142,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -20200,7 +20171,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -20229,7 +20200,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -20258,7 +20229,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -20287,7 +20258,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -20316,7 +20287,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -20345,7 +20316,7 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -20374,12 +20345,12 @@
         <v>19886</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -20402,7 +20373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2018</v>
       </c>
@@ -20431,7 +20402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2019</v>
       </c>
@@ -20460,7 +20431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -20489,7 +20460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2021</v>
       </c>
@@ -20518,7 +20489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2022</v>
       </c>
@@ -20547,7 +20518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2023</v>
       </c>
@@ -20576,7 +20547,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2024</v>
       </c>
@@ -20605,7 +20576,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2025</v>
       </c>
@@ -20634,7 +20605,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2026</v>
       </c>
@@ -20663,7 +20634,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2027</v>
       </c>
@@ -20692,7 +20663,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2028</v>
       </c>
@@ -20721,7 +20692,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2029</v>
       </c>
@@ -20750,7 +20721,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2030</v>
       </c>
@@ -20779,7 +20750,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2031</v>
       </c>
@@ -20808,7 +20779,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2032</v>
       </c>
@@ -20837,7 +20808,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2033</v>
       </c>
@@ -20866,7 +20837,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2034</v>
       </c>
@@ -20895,7 +20866,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2035</v>
       </c>
@@ -20924,7 +20895,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2036</v>
       </c>
@@ -20953,7 +20924,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2037</v>
       </c>
@@ -20982,7 +20953,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2038</v>
       </c>
@@ -21025,9 +20996,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -22474,7 +22445,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -23919,7 +23890,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25364,7 +25335,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26809,7 +26780,7 @@
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28254,7 +28225,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_NY_its.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_NY_its.xlsx
@@ -902,10 +902,10 @@
                   <c:v>123966.4385182156</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>148601.5257512136</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>162896.27914347179</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>148601.5257512136</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>148601.5257512136</c:v>
@@ -914,7 +914,7 @@
                   <c:v>148601.5257512136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>148601.5257512136</c:v>
+                  <c:v>162896.27914347179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,43 +1110,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3198.8888888888887</c:v>
+                  <c:v>3419.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7420</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6458</c:v>
+                  <c:v>7232.1111111111113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7164</c:v>
+                  <c:v>8289</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29050</c:v>
+                  <c:v>30450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7690</c:v>
+                  <c:v>19660.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14840</c:v>
+                  <c:v>17040</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13828</c:v>
+                  <c:v>15940.222222222223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4920</c:v>
+                  <c:v>5360</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10700</c:v>
+                  <c:v>12380</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21000</c:v>
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34480</c:v>
+                  <c:v>38000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21000</c:v>
+                  <c:v>24760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,43 +1226,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>118366.39999999999</c:v>
+                  <c:v>119020.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100181.6</c:v>
+                  <c:v>116275.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96800</c:v>
+                  <c:v>98960</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278720</c:v>
+                  <c:v>341360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262692.8</c:v>
+                  <c:v>327450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148579.6</c:v>
+                  <c:v>166336.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61989.9</c:v>
+                  <c:v>195632.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200640</c:v>
+                  <c:v>201120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78450.2</c:v>
+                  <c:v>79394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89988.6</c:v>
+                  <c:v>89994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355977.2</c:v>
+                  <c:v>228180</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>260532.4</c:v>
+                  <c:v>272276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215177.2</c:v>
+                  <c:v>215188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="61569536"/>
-        <c:axId val="60765248"/>
+        <c:axId val="63651328"/>
+        <c:axId val="100013696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61569536"/>
+        <c:axId val="63651328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60765248"/>
+        <c:crossAx val="100013696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60765248"/>
+        <c:axId val="100013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61569536"/>
+        <c:crossAx val="63651328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,11 +1890,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="60891648"/>
-        <c:axId val="60767552"/>
+        <c:axId val="83564032"/>
+        <c:axId val="104432768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60891648"/>
+        <c:axId val="83564032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60767552"/>
+        <c:crossAx val="104432768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60767552"/>
+        <c:axId val="104432768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60891648"/>
+        <c:crossAx val="83564032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2095,46 +2095,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>54093.514410000003</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28924.563180000001</c:v>
+                  <c:v>4.3807831923748104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65564.735539999994</c:v>
+                  <c:v>5.0010797533386038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66372.63308</c:v>
+                  <c:v>4.4944058634886392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15811.164779999999</c:v>
+                  <c:v>6.7266559448682504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17908.37803</c:v>
+                  <c:v>4.9056445556861235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76475.574179999996</c:v>
+                  <c:v>4.6685421577148505</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71590.295100000003</c:v>
+                  <c:v>9.7242217111677256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72330.433749999997</c:v>
+                  <c:v>10.417300033996801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56524.301570000003</c:v>
+                  <c:v>3.5942606113745872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67241.808149999997</c:v>
+                  <c:v>4.6525429610119176</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18209.722399999999</c:v>
+                  <c:v>5.6279051318205759</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71129.362139999997</c:v>
+                  <c:v>5.4553511253459357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75132.715379999994</c:v>
+                  <c:v>5.6780719428459845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,11 +2154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="59715584"/>
-        <c:axId val="61056704"/>
+        <c:axId val="100967424"/>
+        <c:axId val="238586112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59715584"/>
+        <c:axId val="100967424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61056704"/>
+        <c:crossAx val="238586112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61056704"/>
+        <c:axId val="238586112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59715584"/>
+        <c:crossAx val="100967424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2748,11 +2748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40882176"/>
-        <c:axId val="61058432"/>
+        <c:axId val="103865856"/>
+        <c:axId val="238123776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40882176"/>
+        <c:axId val="103865856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61058432"/>
+        <c:crossAx val="238123776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61058432"/>
+        <c:axId val="238123776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +2781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40882176"/>
+        <c:crossAx val="103865856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2858,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2901,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2942,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3575,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="S3" sqref="S3:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,7 +3714,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
@@ -3779,21 +3779,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="U3" s="11">
-        <v>3198.8888888888887</v>
+        <v>3419.7777777777778</v>
       </c>
       <c r="V3" s="11">
-        <v>118366.39999999999</v>
+        <v>119020.4</v>
       </c>
       <c r="W3" s="11">
         <f>SUM(U3,V3)</f>
-        <v>121565.28888888888</v>
+        <v>122440.17777777778</v>
       </c>
       <c r="X3" s="12">
         <f>S3+T3+U3+V3</f>
-        <v>291788.63717996189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>292663.52606885077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3857,21 +3857,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="U4" s="11">
-        <v>7420</v>
+        <v>7900</v>
       </c>
       <c r="V4" s="11">
-        <v>100181.6</v>
+        <v>116275.2</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" ref="W4:W15" si="0">SUM(U4,V4)</f>
-        <v>107601.60000000001</v>
+        <v>124175.2</v>
       </c>
       <c r="X4" s="12">
         <f t="shared" ref="X4:X14" si="1">S4+T4+U4+V4</f>
-        <v>277824.94829107303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>294398.54829107301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
@@ -3931,21 +3931,21 @@
         <v>23.727612871311063</v>
       </c>
       <c r="U5" s="11">
-        <v>6458</v>
+        <v>7232.1111111111113</v>
       </c>
       <c r="V5" s="11">
-        <v>96800</v>
+        <v>98960</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>103258</v>
+        <v>106192.11111111111</v>
       </c>
       <c r="X5" s="12">
         <f t="shared" si="1"/>
-        <v>227248.16613108691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>230182.27724219803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
@@ -4009,21 +4009,21 @@
         <v>23.727612871311063</v>
       </c>
       <c r="U6" s="11">
-        <v>7164</v>
+        <v>8289</v>
       </c>
       <c r="V6" s="11">
-        <v>278720</v>
+        <v>341360</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="0"/>
-        <v>285884</v>
+        <v>349649</v>
       </c>
       <c r="X6" s="12">
         <f t="shared" si="1"/>
-        <v>409874.16613108688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>473639.16613108688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
@@ -4087,21 +4087,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="U7" s="11">
-        <v>29050</v>
+        <v>30450</v>
       </c>
       <c r="V7" s="11">
-        <v>262692.8</v>
+        <v>327450</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="0"/>
-        <v>291742.8</v>
+        <v>357900</v>
       </c>
       <c r="X7" s="12">
         <f t="shared" si="1"/>
-        <v>461966.14829107304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>528123.34829107299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -4163,21 +4163,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="U8" s="11">
-        <v>7690</v>
+        <v>19660.666666666668</v>
       </c>
       <c r="V8" s="11">
-        <v>148579.6</v>
+        <v>166336.79999999999</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="0"/>
-        <v>156269.6</v>
+        <v>185997.46666666665</v>
       </c>
       <c r="X8" s="12">
         <f t="shared" si="1"/>
-        <v>326492.94829107303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>356220.81495773967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
@@ -4239,21 +4239,21 @@
         <v>35.517736249908381</v>
       </c>
       <c r="U9" s="11">
-        <v>14840</v>
+        <v>17040</v>
       </c>
       <c r="V9" s="11">
-        <v>61989.9</v>
+        <v>195632.2</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="0"/>
-        <v>76829.899999999994</v>
+        <v>212672.2</v>
       </c>
       <c r="X9" s="12">
         <f t="shared" si="1"/>
-        <v>247053.24829107302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>382895.54829107306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -4314,21 +4314,21 @@
         <v>23.727612871311063</v>
       </c>
       <c r="U10" s="11">
-        <v>13828</v>
+        <v>15940.222222222223</v>
       </c>
       <c r="V10" s="11">
-        <v>200640</v>
+        <v>201120</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="0"/>
-        <v>214468</v>
+        <v>217060.22222222222</v>
       </c>
       <c r="X10" s="12">
         <f t="shared" si="1"/>
-        <v>338458.16613108688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>341050.38835330913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -4385,27 +4385,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="S11" s="11">
-        <v>162896.27914347179</v>
+        <v>148601.5257512136</v>
       </c>
       <c r="T11" s="11">
         <v>33.851521342501684</v>
       </c>
       <c r="U11" s="11">
-        <v>4920</v>
+        <v>5360</v>
       </c>
       <c r="V11" s="11">
-        <v>78450.2</v>
+        <v>79394</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="0"/>
-        <v>83370.2</v>
+        <v>84754</v>
       </c>
       <c r="X11" s="12">
         <f t="shared" si="1"/>
-        <v>246300.33066481428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>233389.3772725561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4461,27 +4461,27 @@
         <v>368464.72317224898</v>
       </c>
       <c r="S12" s="11">
-        <v>148601.5257512136</v>
+        <v>162896.27914347179</v>
       </c>
       <c r="T12" s="11">
         <v>33.851521342501684</v>
       </c>
       <c r="U12" s="11">
-        <v>10700</v>
+        <v>12380</v>
       </c>
       <c r="V12" s="11">
-        <v>89988.6</v>
+        <v>89994</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="0"/>
-        <v>100688.6</v>
+        <v>102374</v>
       </c>
       <c r="X12" s="12">
         <f t="shared" si="1"/>
-        <v>249323.97727255611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>265304.13066481426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
@@ -4544,21 +4544,21 @@
         <v>33.851521342501684</v>
       </c>
       <c r="U13" s="11">
-        <v>21000</v>
+        <v>24400</v>
       </c>
       <c r="V13" s="11">
-        <v>355977.2</v>
+        <v>228180</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="0"/>
-        <v>376977.2</v>
+        <v>252580</v>
       </c>
       <c r="X13" s="12">
         <f t="shared" si="1"/>
-        <v>525612.57727255614</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>401215.37727255607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
@@ -4620,21 +4620,21 @@
         <v>33.851521342501684</v>
       </c>
       <c r="U14" s="11">
-        <v>34480</v>
+        <v>38000</v>
       </c>
       <c r="V14" s="11">
-        <v>260532.4</v>
+        <v>272276</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="0"/>
-        <v>295012.40000000002</v>
+        <v>310276</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" si="1"/>
-        <v>443647.77727255609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>458911.37727255607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
@@ -4691,24 +4691,24 @@
         <v>233483.63773783101</v>
       </c>
       <c r="S15" s="11">
-        <v>148601.5257512136</v>
+        <v>162896.27914347179</v>
       </c>
       <c r="T15" s="11">
         <v>33.851521342501684</v>
       </c>
       <c r="U15" s="11">
-        <v>21000</v>
+        <v>24760</v>
       </c>
       <c r="V15" s="11">
-        <v>215177.2</v>
+        <v>215188</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="0"/>
-        <v>236177.2</v>
+        <v>239948</v>
       </c>
       <c r="X15" s="12">
         <f t="shared" ref="X15" si="2">SUM(S15:V15)</f>
-        <v>384812.57727255614</v>
+        <v>402878.13066481426</v>
       </c>
     </row>
     <row r="27" spans="17:17" ht="14.45" x14ac:dyDescent="0.3">
@@ -17146,7 +17146,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17169,111 +17169,111 @@
         <v>23</v>
       </c>
       <c r="B2" s="12">
-        <v>54093.514410000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="12">
-        <v>28924.563180000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.3807831923748104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>65564.735539999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.0010797533386038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>66372.63308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.4944058634886392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="12">
-        <v>15811.164779999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.7266559448682504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>17908.37803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.9056445556861235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>76475.574179999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.6685421577148505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="12">
-        <v>71590.295100000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9.7242217111677256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="12">
-        <v>72330.433749999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10.417300033996801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="12">
-        <v>56524.301570000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3.5942606113745872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="12">
-        <v>67241.808149999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.6525429610119176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="12">
-        <v>18209.722399999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.6279051318205759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="12">
-        <v>71129.362139999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5.4553511253459357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="12">
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
     </row>
   </sheetData>
@@ -17433,31 +17433,31 @@
       </c>
       <c r="U2" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V2" s="11">
         <f>O2-U2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="W2" s="11">
         <f>P2-U2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="Y2" s="11">
         <f>R2-$U2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
       <c r="Z2" s="11">
         <f>S2-$U2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
       <c r="AA2" s="11">
         <f>T2-$U2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
       <c r="AB2" s="11">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -17465,27 +17465,27 @@
       </c>
       <c r="AC2" s="12">
         <f>V2*AB2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="AD2" s="12">
         <f>W2*AB2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="AE2" s="12">
         <f>X2*AB2</f>
-        <v>-73848.715379999994</v>
+        <v>1278.3219280571541</v>
       </c>
       <c r="AF2" s="12">
         <f>Y2*$AB2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
       <c r="AG2" s="12">
         <f>Z2*$AB2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
       <c r="AH2" s="12">
         <f>AA2*$AB2</f>
-        <v>-73992.715379999994</v>
+        <v>1134.3219280571541</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17535,31 +17535,31 @@
       </c>
       <c r="U3" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V3" s="11">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-73416.715379999994</v>
+        <v>1710.3219280571541</v>
       </c>
       <c r="W3" s="11">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-73332.715379999994</v>
+        <v>1794.3219280571541</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="1"/>
-        <v>-72696.715379999994</v>
+        <v>2430.3219280571539</v>
       </c>
       <c r="Y3" s="11">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-73596.715379999994</v>
+        <v>1530.3219280571541</v>
       </c>
       <c r="Z3" s="11">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-73524.715379999994</v>
+        <v>1602.3219280571541</v>
       </c>
       <c r="AA3" s="11">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-72972.715379999994</v>
+        <v>2154.3219280571539</v>
       </c>
       <c r="AB3" s="11">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17567,27 +17567,27 @@
       </c>
       <c r="AC3" s="12">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-66742.468527272722</v>
+        <v>1554.8381164155946</v>
       </c>
       <c r="AD3" s="12">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-66666.10489090909</v>
+        <v>1631.2017527792309</v>
       </c>
       <c r="AE3" s="12">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-66087.923072727266</v>
+        <v>2209.3835709610489</v>
       </c>
       <c r="AF3" s="12">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-66906.10489090909</v>
+        <v>1391.2017527792309</v>
       </c>
       <c r="AG3" s="12">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-66840.650345454531</v>
+        <v>1456.6562982337764</v>
       </c>
       <c r="AH3" s="12">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-66338.832163636354</v>
+        <v>1958.4744800519579</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17646,31 +17646,31 @@
       </c>
       <c r="U4" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="8"/>
-        <v>-72780.715379999994</v>
+        <v>2346.3219280571539</v>
       </c>
       <c r="W4" s="11">
         <f t="shared" si="9"/>
-        <v>-72660.715379999994</v>
+        <v>2466.3219280571539</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="1"/>
-        <v>-70488.715379999994</v>
+        <v>4638.3219280571539</v>
       </c>
       <c r="Y4" s="11">
         <f t="shared" si="10"/>
-        <v>-73044.715379999994</v>
+        <v>2082.3219280571539</v>
       </c>
       <c r="Z4" s="11">
         <f t="shared" si="11"/>
-        <v>-72936.715379999994</v>
+        <v>2190.3219280571539</v>
       </c>
       <c r="AA4" s="11">
         <f t="shared" si="12"/>
-        <v>-70980.715379999994</v>
+        <v>4146.3219280571539</v>
       </c>
       <c r="AB4" s="11">
         <f t="shared" si="13"/>
@@ -17678,27 +17678,27 @@
       </c>
       <c r="AC4" s="12">
         <f t="shared" si="14"/>
-        <v>-60149.351553718996</v>
+        <v>1939.109031452193</v>
       </c>
       <c r="AD4" s="12">
         <f t="shared" si="15"/>
-        <v>-60050.177999999985</v>
+        <v>2038.2825851712014</v>
       </c>
       <c r="AE4" s="12">
         <f t="shared" si="16"/>
-        <v>-58255.136677685936</v>
+        <v>3833.3239074852509</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" si="17"/>
-        <v>-60367.533371900812</v>
+        <v>1720.927213270375</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="18"/>
-        <v>-60278.27717355371</v>
+        <v>1810.1834116174823</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="19"/>
-        <v>-58661.748247933872</v>
+        <v>3426.7123372373167</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17758,31 +17758,31 @@
       </c>
       <c r="U5" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="8"/>
-        <v>-71952.715379999994</v>
+        <v>3174.3219280571539</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="9"/>
-        <v>-71616.715379999994</v>
+        <v>3510.3219280571539</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="1"/>
-        <v>-66096.715379999994</v>
+        <v>9030.3219280571539</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="10"/>
-        <v>-72288.715379999994</v>
+        <v>2838.3219280571539</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="11"/>
-        <v>-71976.715379999994</v>
+        <v>3150.3219280571539</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="12"/>
-        <v>-67020.715379999994</v>
+        <v>8106.3219280571539</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="13"/>
@@ -17790,27 +17790,27 @@
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="14"/>
-        <v>-54059.140030052571</v>
+        <v>2384.9150473757722</v>
       </c>
       <c r="AD5" s="12">
         <f t="shared" si="15"/>
-        <v>-53806.698256949639</v>
+        <v>2637.3568204787025</v>
       </c>
       <c r="AE5" s="12">
         <f t="shared" si="16"/>
-        <v>-49659.440555972935</v>
+        <v>6784.6145214554108</v>
       </c>
       <c r="AF5" s="12">
         <f t="shared" si="17"/>
-        <v>-54311.581803155503</v>
+        <v>2132.4732742728424</v>
       </c>
       <c r="AG5" s="12">
         <f t="shared" si="18"/>
-        <v>-54077.171585274213</v>
+        <v>2366.8834921541343</v>
       </c>
       <c r="AH5" s="12">
         <f t="shared" si="19"/>
-        <v>-50353.655432005988</v>
+        <v>6090.3996454223525</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17870,31 +17870,31 @@
       </c>
       <c r="U6" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V6" s="11">
         <f t="shared" si="8"/>
-        <v>-70788.715379999994</v>
+        <v>4338.3219280571539</v>
       </c>
       <c r="W6" s="11">
         <f t="shared" si="9"/>
-        <v>-70176.715379999994</v>
+        <v>4950.3219280571539</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="1"/>
-        <v>-57600.715379999994</v>
+        <v>17526.321928057154</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="10"/>
-        <v>-71256.715379999994</v>
+        <v>3870.3219280571539</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="11"/>
-        <v>-70692.715379999994</v>
+        <v>4434.3219280571539</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="12"/>
-        <v>-59364.715379999994</v>
+        <v>15762.321928057154</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="13"/>
@@ -17902,27 +17902,27 @@
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="14"/>
-        <v>-48349.645092548308</v>
+        <v>2963.1322505683715</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="15"/>
-        <v>-47931.640857864884</v>
+        <v>3381.1364852517945</v>
       </c>
       <c r="AE6" s="12">
         <f t="shared" si="16"/>
-        <v>-39342.06364319376</v>
+        <v>11970.713699922922</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="17"/>
-        <v>-48669.295389659157</v>
+        <v>2643.4819534575186</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="18"/>
-        <v>-48284.075800833263</v>
+        <v>3028.7015422834183</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="19"/>
-        <v>-40546.89937845774</v>
+        <v>10765.877964658937</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17982,31 +17982,31 @@
       </c>
       <c r="U7" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V7" s="11">
         <f t="shared" si="8"/>
-        <v>-69204.715379999994</v>
+        <v>5922.3219280571539</v>
       </c>
       <c r="W7" s="11">
         <f t="shared" si="9"/>
-        <v>-68136.715379999994</v>
+        <v>6990.3219280571539</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="1"/>
-        <v>-41304.715379999994</v>
+        <v>33822.321928057157</v>
       </c>
       <c r="Y7" s="11">
         <f t="shared" si="10"/>
-        <v>-69804.715379999994</v>
+        <v>5322.3219280571539</v>
       </c>
       <c r="Z7" s="11">
         <f t="shared" si="11"/>
-        <v>-68856.715379999994</v>
+        <v>6270.3219280571539</v>
       </c>
       <c r="AA7" s="11">
         <f t="shared" si="12"/>
-        <v>-44712.715379999994</v>
+        <v>30414.321928057154</v>
       </c>
       <c r="AB7" s="11">
         <f t="shared" si="13"/>
@@ -18014,27 +18014,27 @@
       </c>
       <c r="AC7" s="12">
         <f t="shared" si="14"/>
-        <v>-42970.683435681844</v>
+        <v>3677.2959671514932</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" si="15"/>
-        <v>-42307.539462654669</v>
+        <v>4340.4399401786704</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" si="16"/>
-        <v>-25646.978522331421</v>
+        <v>21001.000880501917</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="17"/>
-        <v>-43343.236229517337</v>
+        <v>3304.7431733160001</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="18"/>
-        <v>-42754.602815257262</v>
+        <v>3893.3765875760791</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="19"/>
-        <v>-27763.07839131702</v>
+        <v>18884.901011516315</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18094,31 +18094,31 @@
       </c>
       <c r="U8" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V8" s="11">
         <f t="shared" si="8"/>
-        <v>-67020.715379999994</v>
+        <v>8106.3219280571539</v>
       </c>
       <c r="W8" s="11">
         <f t="shared" si="9"/>
-        <v>-65220.715379999994</v>
+        <v>9906.3219280571539</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="1"/>
-        <v>-11400.715379999994</v>
+        <v>63726.321928057157</v>
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="10"/>
-        <v>-67872.715379999994</v>
+        <v>7254.3219280571539</v>
       </c>
       <c r="Z8" s="11">
         <f t="shared" si="11"/>
-        <v>-66216.715379999994</v>
+        <v>8910.3219280571539</v>
       </c>
       <c r="AA8" s="11">
         <f t="shared" si="12"/>
-        <v>-17796.715379999994</v>
+        <v>57330.321928057157</v>
       </c>
       <c r="AB8" s="11">
         <f t="shared" si="13"/>
@@ -18126,27 +18126,27 @@
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="14"/>
-        <v>-37831.446605564226</v>
+        <v>4575.8073970115347</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="15"/>
-        <v>-36815.393531467431</v>
+        <v>5591.8604711083335</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="16"/>
-        <v>-6435.4066159731392</v>
+        <v>35971.847386602625</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="17"/>
-        <v>-38312.378393970044</v>
+        <v>4094.875608605716</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="18"/>
-        <v>-37377.609565800994</v>
+        <v>5029.6444367747708</v>
       </c>
       <c r="AH8" s="12">
         <f t="shared" si="19"/>
-        <v>-10045.781872597097</v>
+        <v>32361.472129978665</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18205,31 +18205,31 @@
       </c>
       <c r="U9" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V9" s="11">
         <f t="shared" si="8"/>
-        <v>-64044.715379999994</v>
+        <v>11082.321928057154</v>
       </c>
       <c r="W9" s="11">
         <f t="shared" si="9"/>
-        <v>-61116.715379999994</v>
+        <v>14010.321928057154</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="1"/>
-        <v>39407.284620000006</v>
+        <v>114534.32192805715</v>
       </c>
       <c r="Y9" s="11">
         <f t="shared" si="10"/>
-        <v>-65172.715379999994</v>
+        <v>9954.3219280571539</v>
       </c>
       <c r="Z9" s="11">
         <f t="shared" si="11"/>
-        <v>-62556.715379999994</v>
+        <v>12570.321928057154</v>
       </c>
       <c r="AA9" s="11">
         <f t="shared" si="12"/>
-        <v>27935.284620000006</v>
+        <v>103062.32192805715</v>
       </c>
       <c r="AB9" s="11">
         <f t="shared" si="13"/>
@@ -18237,27 +18237,27 @@
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="14"/>
-        <v>-32865.065627021984</v>
+        <v>5686.9834662287039</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="15"/>
-        <v>-31362.538656842473</v>
+        <v>7189.5104364082117</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="16"/>
-        <v>20222.168020181063</v>
+        <v>58774.217113431747</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="17"/>
-        <v>-33443.90798438622</v>
+        <v>5108.1411088644663</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="18"/>
-        <v>-32101.486347094691</v>
+        <v>6450.5627461559952</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="19"/>
-        <v>14335.218087838399</v>
+        <v>52887.267181089082</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18316,31 +18316,31 @@
       </c>
       <c r="U10" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="8"/>
-        <v>-59988.715379999994</v>
+        <v>15138.321928057154</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="9"/>
-        <v>-55356.715379999994</v>
+        <v>19770.321928057154</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>113099.28462000001</v>
+        <v>188226.32192805715</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="10"/>
-        <v>-61524.715379999994</v>
+        <v>13602.321928057154</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="11"/>
-        <v>-57372.715379999994</v>
+        <v>17754.321928057154</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="12"/>
-        <v>94247.284620000006</v>
+        <v>169374.32192805715</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="13"/>
@@ -18348,27 +18348,27 @@
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="14"/>
-        <v>-27985.178454071123</v>
+        <v>7062.1389034294989</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="15"/>
-        <v>-25824.316268939641</v>
+        <v>9223.0010885609827</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="16"/>
-        <v>52761.650971671166</v>
+        <v>87808.968329171796</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="17"/>
-        <v>-28701.733790073275</v>
+        <v>6345.5835674273494</v>
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="18"/>
-        <v>-26764.795147442463</v>
+        <v>8282.5222100581614</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="19"/>
-        <v>43967.053839957276</v>
+        <v>79014.371197457906</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18427,31 +18427,31 @@
       </c>
       <c r="U11" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="8"/>
-        <v>-54516.715379999994</v>
+        <v>20610.321928057154</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="9"/>
-        <v>-47388.715379999994</v>
+        <v>27738.321928057154</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="1"/>
-        <v>191843.28461999999</v>
+        <v>266970.32192805718</v>
       </c>
       <c r="Y11" s="11">
         <f t="shared" si="10"/>
-        <v>-56604.715379999994</v>
+        <v>18522.321928057154</v>
       </c>
       <c r="Z11" s="11">
         <f t="shared" si="11"/>
-        <v>-50196.715379999994</v>
+        <v>24930.321928057154</v>
       </c>
       <c r="AA11" s="11">
         <f t="shared" si="12"/>
-        <v>165131.28461999999</v>
+        <v>240258.32192805715</v>
       </c>
       <c r="AB11" s="11">
         <f t="shared" si="13"/>
@@ -18459,27 +18459,27 @@
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="14"/>
-        <v>-23120.409154148601</v>
+        <v>8740.7884435792348</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="15"/>
-        <v>-20097.441330389531</v>
+        <v>11763.756267338305</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="16"/>
-        <v>81360.280108096718</v>
+        <v>113221.47770582457</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="17"/>
-        <v>-24005.924981310352</v>
+        <v>7855.2726164174874</v>
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="18"/>
-        <v>-21288.307442779467</v>
+        <v>10572.890154948369</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="19"/>
-        <v>70031.784526130898</v>
+        <v>101892.98212385875</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18539,31 +18539,31 @@
       </c>
       <c r="U12" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="8"/>
-        <v>-47172.715379999994</v>
+        <v>27954.321928057154</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="9"/>
-        <v>-36552.715379999994</v>
+        <v>38574.321928057157</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="1"/>
-        <v>239123.28461999999</v>
+        <v>314250.32192805718</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="10"/>
-        <v>-50004.715379999994</v>
+        <v>25122.321928057154</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="11"/>
-        <v>-40428.715379999994</v>
+        <v>34698.321928057157</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="12"/>
-        <v>207683.28461999999</v>
+        <v>282810.32192805718</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="13"/>
@@ -18571,27 +18571,27 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="14"/>
-        <v>-18187.123858928248</v>
+        <v>10777.601229915237</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="15"/>
-        <v>-14092.654125186624</v>
+        <v>14872.070963656863</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="16"/>
-        <v>92192.377731588887</v>
+        <v>121157.1028204324</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="17"/>
-        <v>-19278.982454592682</v>
+        <v>9685.7426342508043</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="18"/>
-        <v>-15587.019915015488</v>
+        <v>13377.705173827999</v>
       </c>
       <c r="AH12" s="12">
         <f t="shared" si="19"/>
-        <v>80070.896711924419</v>
+        <v>109035.62180076793</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18650,31 +18650,31 @@
       </c>
       <c r="U13" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
-        <v>-37524.715379999994</v>
+        <v>37602.321928057157</v>
       </c>
       <c r="W13" s="11">
         <f t="shared" si="9"/>
-        <v>-21960.715379999994</v>
+        <v>53166.321928057157</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="1"/>
-        <v>249263.28461999999</v>
+        <v>324390.32192805718</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="10"/>
-        <v>-41316.715379999994</v>
+        <v>33810.321928057157</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>-27312.715379999994</v>
+        <v>47814.321928057157</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="12"/>
-        <v>216815.28461999999</v>
+        <v>291942.32192805718</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="13"/>
@@ -18682,27 +18682,27 @@
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="14"/>
-        <v>-13152.183820465571</v>
+        <v>13179.384442119415</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="15"/>
-        <v>-7697.0967689371819</v>
+        <v>18634.471493647805</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="16"/>
-        <v>87365.260624003931</v>
+        <v>113696.82888658893</v>
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="17"/>
-        <v>-14481.256687299008</v>
+        <v>11850.311575285976</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="18"/>
-        <v>-9572.9401189615928</v>
+        <v>16758.628143623391</v>
       </c>
       <c r="AH13" s="12">
         <f t="shared" si="19"/>
-        <v>75992.434573631719</v>
+        <v>102324.00283621672</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18761,31 +18761,31 @@
       </c>
       <c r="U14" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
-        <v>-24900.715379999994</v>
+        <v>50226.321928057157</v>
       </c>
       <c r="W14" s="11">
         <f t="shared" si="9"/>
-        <v>-2916.7153799999942</v>
+        <v>72210.32192805715</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="1"/>
-        <v>249719.28461999999</v>
+        <v>324846.32192805718</v>
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="10"/>
-        <v>-29940.715379999994</v>
+        <v>45186.321928057157</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="11"/>
-        <v>-10152.715379999994</v>
+        <v>64974.321928057157</v>
       </c>
       <c r="AA14" s="11">
         <f t="shared" si="12"/>
-        <v>217199.28461999999</v>
+        <v>292326.32192805718</v>
       </c>
       <c r="AB14" s="11">
         <f t="shared" si="13"/>
@@ -18793,27 +18793,27 @@
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="14"/>
-        <v>-7934.13530310225</v>
+        <v>16003.654026520464</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="15"/>
-        <v>-929.35540655777152</v>
+        <v>23008.433923064942</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="16"/>
-        <v>79568.25985651587</v>
+        <v>103506.0491861386</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="17"/>
-        <v>-9540.0346243624481</v>
+        <v>14397.754705260268</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="18"/>
-        <v>-3234.9680035099118</v>
+        <v>20702.821326112804</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="19"/>
-        <v>69206.385664575064</v>
+        <v>93144.174994197791</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18872,31 +18872,31 @@
       </c>
       <c r="U15" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="8"/>
-        <v>-8820.7153799999942</v>
+        <v>66306.32192805715</v>
       </c>
       <c r="W15" s="11">
         <f t="shared" si="9"/>
-        <v>21203.284620000006</v>
+        <v>96330.32192805715</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="1"/>
-        <v>249803.28461999999</v>
+        <v>324930.32192805718</v>
       </c>
       <c r="Y15" s="11">
         <f t="shared" si="10"/>
-        <v>-15456.715379999994</v>
+        <v>59670.321928057157</v>
       </c>
       <c r="Z15" s="11">
         <f t="shared" si="11"/>
-        <v>11543.284620000006</v>
+        <v>86670.32192805715</v>
       </c>
       <c r="AA15" s="11">
         <f t="shared" si="12"/>
-        <v>217283.28461999999</v>
+        <v>292410.32192805718</v>
       </c>
       <c r="AB15" s="11">
         <f t="shared" si="13"/>
@@ -18904,27 +18904,27 @@
       </c>
       <c r="AC15" s="12">
         <f t="shared" si="14"/>
-        <v>-2555.0470493815606</v>
+        <v>19206.579613911814</v>
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="15"/>
-        <v>6141.8362878327534</v>
+        <v>27903.46295112613</v>
       </c>
       <c r="AE15" s="12">
         <f t="shared" si="16"/>
-        <v>72359.113495639584</v>
+        <v>94120.740158932967</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="17"/>
-        <v>-4477.2598733142213</v>
+        <v>17284.366789979158</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="18"/>
-        <v>3343.6783795763495</v>
+        <v>25105.305042869724</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="19"/>
-        <v>62939.227866602494</v>
+        <v>84700.854529895878</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18983,31 +18983,31 @@
       </c>
       <c r="U16" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="8"/>
-        <v>11171.284620000006</v>
+        <v>86298.32192805715</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="9"/>
-        <v>50231.284620000006</v>
+        <v>125358.32192805715</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>249839.28461999999</v>
+        <v>324966.32192805718</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="10"/>
-        <v>2507.2846200000058</v>
+        <v>77634.32192805715</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="11"/>
-        <v>37655.284620000006</v>
+        <v>112782.32192805715</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="12"/>
-        <v>217307.28461999999</v>
+        <v>292434.32192805718</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="13"/>
@@ -19015,27 +19015,27 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="14"/>
-        <v>2941.7483911948189</v>
+        <v>22725.045357825154</v>
       </c>
       <c r="AD16" s="12">
         <f t="shared" si="15"/>
-        <v>13227.467184390292</v>
+        <v>33010.76415102063</v>
       </c>
       <c r="AE16" s="12">
         <f t="shared" si="16"/>
-        <v>65790.492193918253</v>
+        <v>85573.789160548593</v>
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="17"/>
-        <v>660.24640388694399</v>
+        <v>20443.54337051728</v>
       </c>
       <c r="AG16" s="12">
         <f t="shared" si="18"/>
-        <v>9915.8133302370352</v>
+        <v>29699.110296867369</v>
       </c>
       <c r="AH16" s="12">
         <f t="shared" si="19"/>
-        <v>57223.799828832867</v>
+        <v>77007.096795463207</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19094,31 +19094,31 @@
       </c>
       <c r="U17" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="8"/>
-        <v>35207.284620000006</v>
+        <v>110334.32192805715</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="9"/>
-        <v>83255.284620000006</v>
+        <v>158382.32192805715</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="1"/>
-        <v>249863.28461999999</v>
+        <v>324990.32192805718</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="10"/>
-        <v>24143.284620000006</v>
+        <v>99270.32192805715</v>
       </c>
       <c r="Z17" s="11">
         <f t="shared" si="11"/>
-        <v>67415.284620000006</v>
+        <v>142542.32192805715</v>
       </c>
       <c r="AA17" s="11">
         <f t="shared" si="12"/>
-        <v>217331.28461999999</v>
+        <v>292458.32192805718</v>
       </c>
       <c r="AB17" s="11">
         <f t="shared" si="13"/>
@@ -19126,27 +19126,27 @@
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="14"/>
-        <v>8428.3440179052286</v>
+        <v>26413.159442114626</v>
       </c>
       <c r="AD17" s="12">
         <f t="shared" si="15"/>
-        <v>19930.653205994789</v>
+        <v>37915.468630204188</v>
       </c>
       <c r="AE17" s="12">
         <f t="shared" si="16"/>
-        <v>59815.283767292363</v>
+        <v>77800.099191501766</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="17"/>
-        <v>5779.7103836848046</v>
+        <v>23764.525807894199</v>
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="18"/>
-        <v>16138.683143987242</v>
+        <v>34123.498568196635</v>
       </c>
       <c r="AH17" s="12">
         <f t="shared" si="19"/>
-        <v>52027.381617214734</v>
+        <v>70012.197041424151</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19205,31 +19205,31 @@
       </c>
       <c r="U18" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="8"/>
-        <v>62855.284620000006</v>
+        <v>137982.32192805715</v>
       </c>
       <c r="W18" s="11">
         <f t="shared" si="9"/>
-        <v>118115.28462000001</v>
+        <v>193242.32192805715</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="1"/>
-        <v>249875.28461999999</v>
+        <v>325002.32192805718</v>
       </c>
       <c r="Y18" s="11">
         <f t="shared" si="10"/>
-        <v>49031.284620000006</v>
+        <v>124158.32192805715</v>
       </c>
       <c r="Z18" s="11">
         <f t="shared" si="11"/>
-        <v>98783.284620000006</v>
+        <v>173910.32192805715</v>
       </c>
       <c r="AA18" s="11">
         <f t="shared" si="12"/>
-        <v>217343.28461999999</v>
+        <v>292470.32192805718</v>
       </c>
       <c r="AB18" s="11">
         <f t="shared" si="13"/>
@@ -19237,27 +19237,27 @@
       </c>
       <c r="AC18" s="12">
         <f t="shared" si="14"/>
-        <v>13679.141271694416</v>
+        <v>30028.973475521139</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" si="15"/>
-        <v>25705.327315458024</v>
+        <v>42055.159519284745</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="16"/>
-        <v>54380.142247167991</v>
+        <v>70729.97445099472</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="17"/>
-        <v>10670.636098531402</v>
+        <v>27020.468302358124</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="18"/>
-        <v>21498.120862362874</v>
+        <v>37847.953066189599</v>
       </c>
       <c r="AH18" s="12">
         <f t="shared" si="19"/>
-        <v>47300.231201642877</v>
+        <v>63650.063405469613</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19307,31 +19307,31 @@
       </c>
       <c r="U19" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V19" s="11">
         <f t="shared" si="8"/>
-        <v>92939.284620000006</v>
+        <v>168066.32192805715</v>
       </c>
       <c r="W19" s="11">
         <f t="shared" si="9"/>
-        <v>151715.28461999999</v>
+        <v>226842.32192805715</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="1"/>
-        <v>249887.28461999999</v>
+        <v>325014.32192805718</v>
       </c>
       <c r="Y19" s="11">
         <f t="shared" si="10"/>
-        <v>76127.284620000006</v>
+        <v>151254.32192805715</v>
       </c>
       <c r="Z19" s="11">
         <f t="shared" si="11"/>
-        <v>128987.28462000001</v>
+        <v>204114.32192805715</v>
       </c>
       <c r="AA19" s="11">
         <f t="shared" si="12"/>
-        <v>217355.28461999999</v>
+        <v>292482.32192805718</v>
       </c>
       <c r="AB19" s="11">
         <f t="shared" si="13"/>
@@ -19339,27 +19339,27 @@
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="14"/>
-        <v>18387.541993459312</v>
+        <v>33251.025815119967</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="15"/>
-        <v>30016.060252733645</v>
+        <v>44879.544074394304</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="16"/>
-        <v>49438.8670879977</v>
+        <v>64302.350909658366</v>
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="17"/>
-        <v>15061.377419910243</v>
+        <v>29924.861241570899</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="18"/>
-        <v>25519.446617971378</v>
+        <v>40382.930439632037</v>
       </c>
       <c r="AH19" s="12">
         <f t="shared" si="19"/>
-        <v>43002.584319338508</v>
+        <v>57866.068140999174</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19409,31 +19409,31 @@
       </c>
       <c r="U20" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="8"/>
-        <v>123695.28462000001</v>
+        <v>198822.32192805715</v>
       </c>
       <c r="W20" s="11">
         <f t="shared" si="9"/>
-        <v>181091.28461999999</v>
+        <v>256218.32192805715</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="1"/>
-        <v>249887.28461999999</v>
+        <v>325014.32192805718</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="10"/>
-        <v>103799.28462000001</v>
+        <v>178926.32192805715</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="11"/>
-        <v>155435.28461999999</v>
+        <v>230562.32192805715</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="12"/>
-        <v>217355.28461999999</v>
+        <v>292482.32192805718</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="13"/>
@@ -19441,27 +19441,27 @@
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="14"/>
-        <v>22247.684209228966</v>
+        <v>35759.942228920474</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="15"/>
-        <v>32570.859314858189</v>
+        <v>46083.117334549701</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="16"/>
-        <v>44944.424625452448</v>
+        <v>58456.682645143963</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="17"/>
-        <v>18669.213725195252</v>
+        <v>32181.471744886756</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="18"/>
-        <v>27956.402200947403</v>
+        <v>41468.660220638914</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="19"/>
-        <v>39093.258472125912</v>
+        <v>52605.516491817427</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19511,31 +19511,31 @@
       </c>
       <c r="U21" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="8"/>
-        <v>152951.28461999999</v>
+        <v>228078.32192805715</v>
       </c>
       <c r="W21" s="11">
         <f t="shared" si="9"/>
-        <v>204347.28461999999</v>
+        <v>279474.32192805718</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="1"/>
-        <v>249887.28461999999</v>
+        <v>325014.32192805718</v>
       </c>
       <c r="Y21" s="11">
         <f t="shared" si="10"/>
-        <v>130127.28462000001</v>
+        <v>205254.32192805715</v>
       </c>
       <c r="Z21" s="11">
         <f t="shared" si="11"/>
-        <v>176399.28461999999</v>
+        <v>251526.32192805715</v>
       </c>
       <c r="AA21" s="11">
         <f t="shared" si="12"/>
-        <v>217355.28461999999</v>
+        <v>292482.32192805718</v>
       </c>
       <c r="AB21" s="11">
         <f t="shared" si="13"/>
@@ -19543,27 +19543,27 @@
       </c>
       <c r="AC21" s="12">
         <f t="shared" si="14"/>
-        <v>25008.757242557193</v>
+        <v>37292.628169549469</v>
       </c>
       <c r="AD21" s="12">
         <f t="shared" si="15"/>
-        <v>33412.413939078957</v>
+        <v>45696.284866071241</v>
       </c>
       <c r="AE21" s="12">
         <f t="shared" si="16"/>
-        <v>40858.5678413204</v>
+        <v>53142.438768312684</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="17"/>
-        <v>21276.850859931837</v>
+        <v>33560.721786924114</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="18"/>
-        <v>28842.692611458318</v>
+        <v>41126.563538450595</v>
       </c>
       <c r="AH21" s="12">
         <f t="shared" si="19"/>
-        <v>35539.325883750818</v>
+        <v>47823.196810743102</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19613,31 +19613,31 @@
       </c>
       <c r="U22" s="7">
         <f>OPEX!$B$15</f>
-        <v>75132.715379999994</v>
+        <v>5.6780719428459845</v>
       </c>
       <c r="V22" s="11">
         <f t="shared" si="8"/>
-        <v>178739.28461999999</v>
+        <v>253866.32192805715</v>
       </c>
       <c r="W22" s="11">
         <f t="shared" si="9"/>
-        <v>221147.28461999999</v>
+        <v>296274.32192805718</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="1"/>
-        <v>249887.28461999999</v>
+        <v>325014.32192805718</v>
       </c>
       <c r="Y22" s="11">
         <f t="shared" si="10"/>
-        <v>153347.28461999999</v>
+        <v>228474.32192805715</v>
       </c>
       <c r="Z22" s="11">
         <f t="shared" si="11"/>
-        <v>191495.28461999999</v>
+        <v>266622.32192805718</v>
       </c>
       <c r="AA22" s="11">
         <f t="shared" si="12"/>
-        <v>217355.28461999999</v>
+        <v>292482.32192805718</v>
       </c>
       <c r="AB22" s="11">
         <f t="shared" si="13"/>
@@ -19645,27 +19645,27 @@
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="14"/>
-        <v>26568.455736356791</v>
+        <v>37735.611124531591</v>
       </c>
       <c r="AD22" s="12">
         <f t="shared" si="15"/>
-        <v>32872.134713604668</v>
+        <v>44039.290101779472</v>
       </c>
       <c r="AE22" s="12">
         <f t="shared" si="16"/>
-        <v>37144.152583018549</v>
+        <v>48311.307971193353</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" si="17"/>
-        <v>22794.096733567738</v>
+        <v>33961.252121742538</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="18"/>
-        <v>28464.553855432765</v>
+        <v>39631.709243607569</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" si="19"/>
-        <v>32308.478076137115</v>
+        <v>43475.633464311919</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -19939,7 +19939,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>11517</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>19227</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>19847</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -20113,7 +20113,7 @@
         <v>19876</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>19880</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>19885</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
